--- a/Data_2020/Excel_files_2020/Table_1_Incidents_Offenses_Victims_and_Known_Offenders_by_Bias_Motivation_2020.xlsx
+++ b/Data_2020/Excel_files_2020/Table_1_Incidents_Offenses_Victims_and_Known_Offenders_by_Bias_Motivation_2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD101E16-9A49-4677-ABC9-587088CEA9ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C872FC-2D84-014D-9611-7C934C4F9B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="2088" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="760" windowWidth="11820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Anti-Other Christian</t>
-  </si>
-  <si>
-    <t>Anti-Buddist</t>
   </si>
   <si>
     <t>Anti-Hindu</t>
@@ -321,6 +318,9 @@
       </rPr>
       <t xml:space="preserve"> is an incident in which one or more offense types are motivated by two or more biases.</t>
     </r>
+  </si>
+  <si>
+    <t>Anti-Buddhist</t>
   </si>
 </sst>
 </file>
@@ -542,10 +542,10 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -897,37 +897,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -935,16 +937,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -961,9 +963,9 @@
         <v>6780</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="4">
         <v>8052</v>
@@ -978,9 +980,9 @@
         <v>6657</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4">
         <v>5227</v>
@@ -995,7 +997,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1012,7 +1014,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1031,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1048,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1080,9 +1082,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="18">
         <v>211</v>
@@ -1097,7 +1099,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -1114,7 +1116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -1131,9 +1133,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="18">
         <v>298</v>
@@ -1148,9 +1150,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4">
         <v>1244</v>
@@ -1165,7 +1167,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1184,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -1199,7 +1201,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
@@ -1216,7 +1218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -1233,7 +1235,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -1250,9 +1252,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="7">
         <v>40</v>
@@ -1267,7 +1269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
@@ -1284,7 +1286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
@@ -1301,9 +1303,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="7">
         <v>43</v>
@@ -1318,7 +1320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
@@ -1335,9 +1337,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B29" s="7">
         <v>15</v>
@@ -1352,9 +1354,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="7">
         <v>11</v>
@@ -1369,9 +1371,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="7">
         <v>89</v>
@@ -1386,9 +1388,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="7">
         <v>8</v>
@@ -1403,9 +1405,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="4">
         <v>1110</v>
@@ -1420,9 +1422,9 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="7">
         <v>673</v>
@@ -1437,9 +1439,9 @@
         <v>680</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="7">
         <v>103</v>
@@ -1454,9 +1456,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="7">
         <v>306</v>
@@ -1471,9 +1473,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="7">
         <v>11</v>
@@ -1488,9 +1490,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="7">
         <v>17</v>
@@ -1505,9 +1507,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="4">
         <v>130</v>
@@ -1522,9 +1524,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7">
         <v>53</v>
@@ -1539,9 +1541,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="7">
         <v>77</v>
@@ -1556,9 +1558,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="4">
         <v>75</v>
@@ -1573,9 +1575,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="7">
         <v>25</v>
@@ -1590,9 +1592,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="7">
         <v>50</v>
@@ -1607,9 +1609,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="4">
         <v>266</v>
@@ -1624,9 +1626,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="7">
         <v>213</v>
@@ -1641,9 +1643,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" s="7">
         <v>53</v>
@@ -1658,9 +1660,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="4">
         <v>211</v>
@@ -1675,27 +1677,27 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
